--- a/Статистика_2025.xlsx
+++ b/Статистика_2025.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/konov_k_i/Yandex.Disk.localized/Git/MoiGolos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{442037E8-CD77-D04F-AC1D-871DB42336CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33EB379-E519-4242-8B10-3739127FF63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16900" xr2:uid="{C88F063A-10C3-0E4D-865C-03C0BD286C44}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t xml:space="preserve">вопрос </t>
   </si>
@@ -49,13 +49,31 @@
   </si>
   <si>
     <t>не будут</t>
+  </si>
+  <si>
+    <t xml:space="preserve">осталось </t>
+  </si>
+  <si>
+    <t>молодежь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">профи </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удовлетворенность </t>
+  </si>
+  <si>
+    <t>Спрофи</t>
+  </si>
+  <si>
+    <t>Олд</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,8 +82,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,6 +99,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -91,9 +127,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -408,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD7B0A8-6FC2-B442-B2A9-535EF27F0AA7}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,6 +696,287 @@
         <v>18</v>
       </c>
     </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3">
+        <v>6</v>
+      </c>
+      <c r="G20" s="3">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>100 - SUM(A20:K20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <f>SUM(A20:C20)</f>
+        <v>64</v>
+      </c>
+      <c r="C21">
+        <f>SUM(F20:K20)</f>
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <f>B21-C21</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <f>SUM(A20:C20)/SUM(A20:K20)-SUM(F20:K20)/SUM(A20:K20)</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>11</v>
+      </c>
+      <c r="B26" s="2">
+        <v>26</v>
+      </c>
+      <c r="C26" s="2">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f>100 - SUM(A26:K26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <f>SUM(A26:C26)</f>
+        <v>66</v>
+      </c>
+      <c r="C27">
+        <f>SUM(F26:K26)</f>
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <f>B27-C27</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <f>SUM(A26:C26)/SUM(A26:K26)-SUM(F26:K26)/SUM(A26:K26)</f>
+        <v>0.48000000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <f>100-SUM(A33:D33)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f>(A33-D33)/SUM(A33:D33)</f>
+        <v>0.51020408163265307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>62</v>
+      </c>
+      <c r="B37">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <f>100-SUM(A37:D37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f>(A37-D37)/SUM(A37:D37)</f>
+        <v>0.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
